--- a/biology/Biochimie/Caspase_2/Caspase_2.xlsx
+++ b/biology/Biochimie/Caspase_2/Caspase_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La caspase 2 est une protéase à sérine de la famille des caspases (de l'anglais cysteine-dependent aspartate-directed proteases) qui catalyse le clivage des chaînes polypeptidiques au niveau de séquences ayant un résidu d'aspartate en P1, avec une préférence pour la séquence Val–Asp–Val–Ala–Asp-|-. Elle est codée chez l'homme par le gène CASP2[3], situé sur le chromosome 7.
+La caspase 2 est une protéase à sérine de la famille des caspases (de l'anglais cysteine-dependent aspartate-directed proteases) qui catalyse le clivage des chaînes polypeptidiques au niveau de séquences ayant un résidu d'aspartate en P1, avec une préférence pour la séquence Val–Asp–Val–Ala–Asp-|-. Elle est codée chez l'homme par le gène CASP2, situé sur le chromosome 7.
 La caspase 2 est l'une des caspases dont la séquence est la mieux conservée d'une espèce à l'autre. Cette séquence est semblable à celles des caspases d'amorçage, dont la caspase 1, la caspase 4, la caspase 5 et la caspase 9. Elle est issue d'une proenzyme, la procaspase 2, contenant un long domaine semblable à la caspase 9 contenant un domaine CARD (en) qui s'associe avec plusieurs protéines intervenant dans le processus d'apoptose. Cette proenzyme est clivée en deux sous-unités, une grande et une petite, appelées respectivement p19 et p12.
 </t>
         </is>
